--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Fortrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Fortrace.xlsx
@@ -1734,41 +1734,99 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1819,108 +1877,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2407,7 +2407,6 @@
       <c r="A3" s="77"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF7A" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:J8"/>
   <dataValidations count="3">
     <dataValidation sqref="E2:E3"/>
@@ -2450,11 +2449,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="100"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="118"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -2517,20 +2516,20 @@
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:22" s="38" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
       <c r="M7" s="60"/>
       <c r="N7" s="61" t="s">
         <v>29</v>
@@ -2545,48 +2544,48 @@
       <c r="V7" s="63"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="102" t="s">
+      <c r="D8" s="124"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="101" t="s">
+      <c r="G8" s="121"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="108" t="s">
+      <c r="J8" s="109"/>
+      <c r="K8" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="127" t="s">
+      <c r="L8" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="110" t="s">
+      <c r="M8" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="112"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="135"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="98"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="64" t="s">
         <v>20</v>
       </c>
@@ -2611,18 +2610,18 @@
       <c r="J9" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="109"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
-      <c r="V9" s="136"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="99"/>
     </row>
     <row r="10" spans="1:22" s="38" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="67"/>
@@ -2663,13 +2662,13 @@
       <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
@@ -2691,58 +2690,58 @@
       <c r="V12" s="35"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115" t="s">
+      <c r="C13" s="133"/>
+      <c r="D13" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="106" t="s">
         <v>41</v>
       </c>
       <c r="M13" s="20"/>
-      <c r="N13" s="123" t="s">
+      <c r="N13" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="125" t="s">
+      <c r="O13" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="125" t="s">
+      <c r="P13" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="96" t="s">
+      <c r="Q13" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="140"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="95"/>
     </row>
     <row r="14" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A14" s="116"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="68" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="130"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="107"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="139"/>
-      <c r="V14" s="141"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="96"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1">
       <c r="A15" s="47"/>
@@ -2775,20 +2774,20 @@
       <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="70"/>
       <c r="N17" s="71" t="s">
         <v>29</v>
@@ -2805,38 +2804,38 @@
     <row r="18" spans="1:22" s="40" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="94" t="s">
+      <c r="D18" s="138"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="85" t="s">
+      <c r="G18" s="138"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="87"/>
-      <c r="K18" s="92" t="s">
+      <c r="J18" s="139"/>
+      <c r="K18" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="88" t="s">
+      <c r="L18" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="95" t="s">
+      <c r="M18" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="90"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
-      <c r="S18" s="142"/>
-      <c r="T18" s="142"/>
-      <c r="U18" s="142"/>
-      <c r="V18" s="144"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="87"/>
     </row>
     <row r="19" spans="1:22" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="38"/>
@@ -2865,18 +2864,18 @@
       <c r="J19" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="93"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="145"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="88"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1">
       <c r="C20" s="25"/>
@@ -4774,36 +4773,14 @@
       <c r="K106" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF7A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="49">
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="M18:M19"/>
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I8:J8"/>
@@ -4818,13 +4795,34 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A7:L7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Fortrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Fortrace.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>Supplier</t>
   </si>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>Lot Number of Product</t>
+  </si>
+  <si>
+    <t>Falls mehrere Lieferungen in dasselbe Lot gehen:
+bitte bei der Lot Definition in der Tablle "Lot Information" darauf achten, dass das Lot auch für alle Lieferungen korrekt definiert wird, i.e. dass Lotnummer, Size, Unit und Name auch identisch sind, sonst wird der Import verweigert</t>
   </si>
 </sst>
 </file>
@@ -1734,99 +1738,41 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1877,50 +1823,108 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2449,11 +2453,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="100"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -2516,20 +2520,20 @@
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:22" s="38" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
       <c r="M7" s="60"/>
       <c r="N7" s="61" t="s">
         <v>29</v>
@@ -2544,48 +2548,48 @@
       <c r="V7" s="63"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="120" t="s">
+      <c r="D8" s="106"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="119" t="s">
+      <c r="G8" s="103"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="109"/>
-      <c r="K8" s="126" t="s">
+      <c r="J8" s="93"/>
+      <c r="K8" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="104" t="s">
+      <c r="L8" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="128" t="s">
+      <c r="M8" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="130"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="98"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="135"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A9" s="127"/>
-      <c r="B9" s="127"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="64" t="s">
         <v>20</v>
       </c>
@@ -2610,18 +2614,18 @@
       <c r="J9" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="127"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="99"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="136"/>
     </row>
     <row r="10" spans="1:22" s="38" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="67"/>
@@ -2662,13 +2666,13 @@
       <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
@@ -2690,58 +2694,58 @@
       <c r="V12" s="35"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="108" t="s">
+      <c r="C13" s="114"/>
+      <c r="D13" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="129" t="s">
         <v>41</v>
       </c>
       <c r="M13" s="20"/>
-      <c r="N13" s="91" t="s">
+      <c r="N13" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="102" t="s">
+      <c r="O13" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="102" t="s">
+      <c r="P13" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="114" t="s">
+      <c r="Q13" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="95"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="140"/>
     </row>
     <row r="14" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A14" s="134"/>
+      <c r="A14" s="116"/>
       <c r="B14" s="68" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="107"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="130"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="96"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="141"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1">
       <c r="A15" s="47"/>
@@ -2774,20 +2778,20 @@
       <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
       <c r="M17" s="70"/>
       <c r="N17" s="71" t="s">
         <v>29</v>
@@ -2804,38 +2808,38 @@
     <row r="18" spans="1:22" s="40" customFormat="1" ht="25.5" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="144" t="s">
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="138"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="137" t="s">
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="139"/>
-      <c r="K18" s="143" t="s">
+      <c r="J18" s="87"/>
+      <c r="K18" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="140" t="s">
+      <c r="L18" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="145" t="s">
+      <c r="M18" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="142"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="87"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="144"/>
     </row>
     <row r="19" spans="1:22" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="38"/>
@@ -2864,18 +2868,18 @@
       <c r="J19" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="109"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="88"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="145"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1">
       <c r="C20" s="25"/>
@@ -4774,13 +4778,34 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I8:J8"/>
@@ -4795,34 +4820,13 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4986,9 +4990,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -5028,6 +5034,11 @@
     <row r="6" spans="1:2">
       <c r="A6" s="12"/>
     </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Fortrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Fortrace.xlsx
@@ -76,9 +76,6 @@
     <t>Packing Units</t>
   </si>
   <si>
-    <t>"Pflicht"-Felder</t>
-  </si>
-  <si>
     <t>Sampling</t>
   </si>
   <si>
@@ -154,22 +151,6 @@
     <t>Additional Fields -&gt;</t>
   </si>
   <si>
-    <t>muss ausgefüllt bzw. überprüft werden vom Inspektor</t>
-  </si>
-  <si>
-    <t>IMMER PFLICHT!!! Falls nicht bekannt, dann bitte eines ausdenken!</t>
-  </si>
-  <si>
-    <t>ist bereits ausgefüllt vom Supplier kann aber korrigiert werden vom Inspektor</t>
-  </si>
-  <si>
-    <t>pro Exceltabelle wird nur eine "Station in Focus"  abgefragt.
-Es können mehrere Lieferungen bzw. Lots abgefragt werden.
-Für jedes Lot gilt es:
-- weitere Lotinformationen zu erfassen
-- alle Folge-Lieferungen zu erfassen</t>
-  </si>
-  <si>
     <t>Lot Number of Ingredient</t>
   </si>
   <si>
@@ -179,15 +160,31 @@
     <t>Lot Number of Product</t>
   </si>
   <si>
-    <t>Falls mehrere Lieferungen in dasselbe Lot gehen:
-bitte bei der Lot Definition in der Tablle "Lot Information" darauf achten, dass das Lot auch für alle Lieferungen korrekt definiert wird, i.e. dass Lotnummer, Size, Unit und Name auch identisch sind, sonst wird der Import verweigert</t>
+    <t>Must be filled in / must be checked by inspector</t>
+  </si>
+  <si>
+    <t>already filled by receiver, may be corrected by inspector</t>
+  </si>
+  <si>
+    <t>Mandatory fields</t>
+  </si>
+  <si>
+    <t>are underlined</t>
+  </si>
+  <si>
+    <t>ALWAYS MANDATORY!!! Please create a lot number if the true number is unknown.</t>
+  </si>
+  <si>
+    <t>For each requested lot data has to be collected:
+- further lot information
+- all outgoing deliveries with associated lot en detail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,12 +431,21 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="31">
@@ -1493,7 +1499,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="30" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -1738,41 +1744,99 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1823,107 +1887,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2344,7 +2353,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="2" customWidth="1"/>
@@ -2360,7 +2369,7 @@
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" ht="30">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>3</v>
       </c>
@@ -2374,7 +2383,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="80" t="s">
         <v>7</v>
@@ -2392,7 +2401,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
@@ -2403,11 +2412,11 @@
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="77"/>
       <c r="K2" s="78"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="77"/>
     </row>
   </sheetData>
@@ -2431,7 +2440,7 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="24" style="20" customWidth="1"/>
@@ -2452,12 +2461,12 @@
     <col min="17" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" customHeight="1">
-      <c r="A1" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="100"/>
+    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="118"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -2469,7 +2478,7 @@
       <c r="L1" s="52"/>
       <c r="M1" s="52"/>
     </row>
-    <row r="2" spans="1:22" ht="25.5" customHeight="1">
+    <row r="2" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>11</v>
       </c>
@@ -2477,28 +2486,28 @@
         <v>13</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="37"/>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="3" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="29"/>
       <c r="C3" s="39"/>
       <c r="D3" s="37"/>
       <c r="M3" s="52"/>
     </row>
-    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="37"/>
       <c r="M4" s="52"/>
     </row>
-    <row r="5" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="5" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="45" t="e">
@@ -2510,7 +2519,7 @@
       <c r="F5" s="53"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="33"/>
       <c r="C6" s="53"/>
@@ -2519,24 +2528,24 @@
       <c r="F6" s="53"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:22" s="38" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A7" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
+    <row r="7" spans="1:22" s="38" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="135" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
       <c r="M7" s="60"/>
       <c r="N7" s="61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O7" s="62"/>
       <c r="P7" s="62"/>
@@ -2547,87 +2556,87 @@
       <c r="U7" s="62"/>
       <c r="V7" s="63"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A8" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="105" t="s">
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="126" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="124"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="101" t="s">
+      <c r="G8" s="121"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="109"/>
+      <c r="K8" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="112"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="135"/>
-    </row>
-    <row r="9" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="98"/>
+    </row>
+    <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="E9" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="F9" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="109"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
-      <c r="V9" s="136"/>
-    </row>
-    <row r="10" spans="1:22" s="38" customFormat="1" ht="21" customHeight="1">
+      <c r="K9" s="127"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
+      <c r="U9" s="97"/>
+      <c r="V9" s="99"/>
+    </row>
+    <row r="10" spans="1:22" s="38" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="67"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
@@ -2651,7 +2660,7 @@
       <c r="U10" s="42"/>
       <c r="V10" s="42"/>
     </row>
-    <row r="11" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="11" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -2665,14 +2674,14 @@
       <c r="K11" s="37"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1">
-      <c r="A12" s="131" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
+    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
@@ -2682,7 +2691,7 @@
       <c r="L12" s="54"/>
       <c r="M12" s="52"/>
       <c r="N12" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="34"/>
@@ -2693,61 +2702,61 @@
       <c r="U12" s="34"/>
       <c r="V12" s="35"/>
     </row>
-    <row r="13" spans="1:22" ht="18" customHeight="1">
-      <c r="A13" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="113" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115" t="s">
+    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="133"/>
+      <c r="D13" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="129" t="s">
-        <v>41</v>
+      <c r="E13" s="106" t="s">
+        <v>40</v>
       </c>
       <c r="M13" s="20"/>
-      <c r="N13" s="123" t="s">
+      <c r="N13" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="125" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="140"/>
-    </row>
-    <row r="14" spans="1:22" ht="17.25" customHeight="1">
-      <c r="A14" s="116"/>
+      <c r="P13" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="95"/>
+    </row>
+    <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="134"/>
       <c r="B14" s="68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="130"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="109"/>
+      <c r="E14" s="107"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="139"/>
-      <c r="V14" s="141"/>
-    </row>
-    <row r="15" spans="1:22" ht="21" customHeight="1">
+      <c r="N14" s="92"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="96"/>
+    </row>
+    <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="49"/>
@@ -2764,7 +2773,7 @@
       <c r="U15" s="55"/>
       <c r="V15" s="19"/>
     </row>
-    <row r="16" spans="1:22" ht="21" customHeight="1" thickBot="1">
+    <row r="16" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2777,24 +2786,24 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:22" ht="21" customHeight="1">
-      <c r="A17" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
+    <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="70"/>
       <c r="N17" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
@@ -2805,83 +2814,83 @@
       <c r="U17" s="72"/>
       <c r="V17" s="73"/>
     </row>
-    <row r="18" spans="1:22" s="40" customFormat="1" ht="25.5" customHeight="1">
+    <row r="18" spans="1:22" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="94" t="s">
+      <c r="C18" s="137" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="138"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="144" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="138"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="139"/>
+      <c r="K18" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="87"/>
-      <c r="K18" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18" s="90"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
-      <c r="S18" s="142"/>
-      <c r="T18" s="142"/>
-      <c r="U18" s="142"/>
-      <c r="V18" s="144"/>
-    </row>
-    <row r="19" spans="1:22" s="40" customFormat="1" ht="16.5" customHeight="1">
+      <c r="L18" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="145" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="142"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="87"/>
+    </row>
+    <row r="19" spans="1:22" s="40" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="20"/>
       <c r="C19" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="E19" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="F19" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="93"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="145"/>
-    </row>
-    <row r="20" spans="1:22" ht="21" customHeight="1">
+      <c r="K19" s="109"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="88"/>
+    </row>
+    <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -2903,7 +2912,7 @@
       <c r="U20" s="26"/>
       <c r="V20" s="27"/>
     </row>
-    <row r="21" spans="1:22" ht="21" customHeight="1">
+    <row r="21" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -2925,7 +2934,7 @@
       <c r="U21" s="26"/>
       <c r="V21" s="27"/>
     </row>
-    <row r="22" spans="1:22" ht="21" customHeight="1">
+    <row r="22" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -2947,7 +2956,7 @@
       <c r="U22" s="26"/>
       <c r="V22" s="27"/>
     </row>
-    <row r="23" spans="1:22" ht="21" customHeight="1">
+    <row r="23" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -2969,7 +2978,7 @@
       <c r="U23" s="26"/>
       <c r="V23" s="27"/>
     </row>
-    <row r="24" spans="1:22" ht="21" customHeight="1">
+    <row r="24" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -2991,7 +3000,7 @@
       <c r="U24" s="26"/>
       <c r="V24" s="27"/>
     </row>
-    <row r="25" spans="1:22" ht="21" customHeight="1">
+    <row r="25" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -3013,7 +3022,7 @@
       <c r="U25" s="26"/>
       <c r="V25" s="27"/>
     </row>
-    <row r="26" spans="1:22" ht="21" customHeight="1">
+    <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -3035,7 +3044,7 @@
       <c r="U26" s="26"/>
       <c r="V26" s="27"/>
     </row>
-    <row r="27" spans="1:22" ht="21" customHeight="1">
+    <row r="27" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -3057,7 +3066,7 @@
       <c r="U27" s="26"/>
       <c r="V27" s="27"/>
     </row>
-    <row r="28" spans="1:22" ht="21" customHeight="1">
+    <row r="28" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -3079,7 +3088,7 @@
       <c r="U28" s="26"/>
       <c r="V28" s="27"/>
     </row>
-    <row r="29" spans="1:22" ht="21" customHeight="1">
+    <row r="29" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -3101,7 +3110,7 @@
       <c r="U29" s="26"/>
       <c r="V29" s="27"/>
     </row>
-    <row r="30" spans="1:22" ht="21" customHeight="1">
+    <row r="30" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -3123,7 +3132,7 @@
       <c r="U30" s="26"/>
       <c r="V30" s="27"/>
     </row>
-    <row r="31" spans="1:22" ht="21" customHeight="1">
+    <row r="31" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -3145,7 +3154,7 @@
       <c r="U31" s="26"/>
       <c r="V31" s="27"/>
     </row>
-    <row r="32" spans="1:22" ht="21" customHeight="1">
+    <row r="32" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -3167,7 +3176,7 @@
       <c r="U32" s="26"/>
       <c r="V32" s="27"/>
     </row>
-    <row r="33" spans="3:22" ht="21" customHeight="1">
+    <row r="33" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -3189,7 +3198,7 @@
       <c r="U33" s="26"/>
       <c r="V33" s="27"/>
     </row>
-    <row r="34" spans="3:22" ht="21" customHeight="1">
+    <row r="34" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -3211,7 +3220,7 @@
       <c r="U34" s="26"/>
       <c r="V34" s="27"/>
     </row>
-    <row r="35" spans="3:22" ht="21" customHeight="1">
+    <row r="35" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
@@ -3233,7 +3242,7 @@
       <c r="U35" s="26"/>
       <c r="V35" s="27"/>
     </row>
-    <row r="36" spans="3:22" ht="21" customHeight="1">
+    <row r="36" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
@@ -3255,7 +3264,7 @@
       <c r="U36" s="26"/>
       <c r="V36" s="27"/>
     </row>
-    <row r="37" spans="3:22" ht="21" customHeight="1">
+    <row r="37" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -3277,7 +3286,7 @@
       <c r="U37" s="26"/>
       <c r="V37" s="27"/>
     </row>
-    <row r="38" spans="3:22" ht="21" customHeight="1">
+    <row r="38" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -3299,7 +3308,7 @@
       <c r="U38" s="26"/>
       <c r="V38" s="27"/>
     </row>
-    <row r="39" spans="3:22" ht="21" customHeight="1">
+    <row r="39" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -3321,7 +3330,7 @@
       <c r="U39" s="26"/>
       <c r="V39" s="27"/>
     </row>
-    <row r="40" spans="3:22" ht="21" customHeight="1">
+    <row r="40" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -3343,7 +3352,7 @@
       <c r="U40" s="26"/>
       <c r="V40" s="27"/>
     </row>
-    <row r="41" spans="3:22" ht="21" customHeight="1">
+    <row r="41" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -3365,7 +3374,7 @@
       <c r="U41" s="26"/>
       <c r="V41" s="27"/>
     </row>
-    <row r="42" spans="3:22" ht="21" customHeight="1">
+    <row r="42" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -3387,7 +3396,7 @@
       <c r="U42" s="26"/>
       <c r="V42" s="27"/>
     </row>
-    <row r="43" spans="3:22" ht="21" customHeight="1">
+    <row r="43" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -3409,7 +3418,7 @@
       <c r="U43" s="26"/>
       <c r="V43" s="27"/>
     </row>
-    <row r="44" spans="3:22" ht="21" customHeight="1">
+    <row r="44" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -3431,7 +3440,7 @@
       <c r="U44" s="26"/>
       <c r="V44" s="27"/>
     </row>
-    <row r="45" spans="3:22" ht="21" customHeight="1">
+    <row r="45" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -3453,7 +3462,7 @@
       <c r="U45" s="26"/>
       <c r="V45" s="27"/>
     </row>
-    <row r="46" spans="3:22" ht="21" customHeight="1">
+    <row r="46" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -3475,7 +3484,7 @@
       <c r="U46" s="26"/>
       <c r="V46" s="27"/>
     </row>
-    <row r="47" spans="3:22" ht="21" customHeight="1">
+    <row r="47" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
@@ -3497,7 +3506,7 @@
       <c r="U47" s="26"/>
       <c r="V47" s="27"/>
     </row>
-    <row r="48" spans="3:22" ht="21" customHeight="1">
+    <row r="48" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
@@ -3519,7 +3528,7 @@
       <c r="U48" s="26"/>
       <c r="V48" s="27"/>
     </row>
-    <row r="49" spans="3:22" ht="21" customHeight="1">
+    <row r="49" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
@@ -3541,7 +3550,7 @@
       <c r="U49" s="26"/>
       <c r="V49" s="27"/>
     </row>
-    <row r="50" spans="3:22" ht="21" customHeight="1">
+    <row r="50" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
@@ -3563,7 +3572,7 @@
       <c r="U50" s="26"/>
       <c r="V50" s="27"/>
     </row>
-    <row r="51" spans="3:22" ht="21" customHeight="1">
+    <row r="51" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -3585,7 +3594,7 @@
       <c r="U51" s="26"/>
       <c r="V51" s="27"/>
     </row>
-    <row r="52" spans="3:22" ht="21" customHeight="1">
+    <row r="52" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -3607,7 +3616,7 @@
       <c r="U52" s="26"/>
       <c r="V52" s="27"/>
     </row>
-    <row r="53" spans="3:22" ht="21" customHeight="1">
+    <row r="53" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -3629,7 +3638,7 @@
       <c r="U53" s="26"/>
       <c r="V53" s="27"/>
     </row>
-    <row r="54" spans="3:22" ht="21" customHeight="1">
+    <row r="54" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -3651,7 +3660,7 @@
       <c r="U54" s="26"/>
       <c r="V54" s="27"/>
     </row>
-    <row r="55" spans="3:22" ht="21" customHeight="1">
+    <row r="55" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
@@ -3673,7 +3682,7 @@
       <c r="U55" s="26"/>
       <c r="V55" s="27"/>
     </row>
-    <row r="56" spans="3:22" ht="21" customHeight="1">
+    <row r="56" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
@@ -3695,7 +3704,7 @@
       <c r="U56" s="26"/>
       <c r="V56" s="27"/>
     </row>
-    <row r="57" spans="3:22" ht="21" customHeight="1">
+    <row r="57" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -3717,7 +3726,7 @@
       <c r="U57" s="26"/>
       <c r="V57" s="27"/>
     </row>
-    <row r="58" spans="3:22" ht="21" customHeight="1">
+    <row r="58" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
@@ -3739,7 +3748,7 @@
       <c r="U58" s="26"/>
       <c r="V58" s="27"/>
     </row>
-    <row r="59" spans="3:22" ht="21" customHeight="1">
+    <row r="59" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
@@ -3761,7 +3770,7 @@
       <c r="U59" s="26"/>
       <c r="V59" s="27"/>
     </row>
-    <row r="60" spans="3:22" ht="21" customHeight="1">
+    <row r="60" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
@@ -3783,7 +3792,7 @@
       <c r="U60" s="26"/>
       <c r="V60" s="27"/>
     </row>
-    <row r="61" spans="3:22" ht="21" customHeight="1">
+    <row r="61" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
@@ -3805,7 +3814,7 @@
       <c r="U61" s="26"/>
       <c r="V61" s="27"/>
     </row>
-    <row r="62" spans="3:22" ht="21" customHeight="1">
+    <row r="62" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
       <c r="E62" s="25"/>
@@ -3827,7 +3836,7 @@
       <c r="U62" s="26"/>
       <c r="V62" s="27"/>
     </row>
-    <row r="63" spans="3:22" ht="21" customHeight="1">
+    <row r="63" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
@@ -3849,7 +3858,7 @@
       <c r="U63" s="26"/>
       <c r="V63" s="27"/>
     </row>
-    <row r="64" spans="3:22" ht="21" customHeight="1">
+    <row r="64" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
@@ -3871,7 +3880,7 @@
       <c r="U64" s="26"/>
       <c r="V64" s="27"/>
     </row>
-    <row r="65" spans="3:22" ht="21" customHeight="1">
+    <row r="65" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
@@ -3893,7 +3902,7 @@
       <c r="U65" s="26"/>
       <c r="V65" s="27"/>
     </row>
-    <row r="66" spans="3:22" ht="21" customHeight="1">
+    <row r="66" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
       <c r="E66" s="25"/>
@@ -3915,7 +3924,7 @@
       <c r="U66" s="26"/>
       <c r="V66" s="27"/>
     </row>
-    <row r="67" spans="3:22" ht="21" customHeight="1">
+    <row r="67" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
       <c r="E67" s="25"/>
@@ -3937,7 +3946,7 @@
       <c r="U67" s="26"/>
       <c r="V67" s="27"/>
     </row>
-    <row r="68" spans="3:22" ht="21" customHeight="1">
+    <row r="68" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
@@ -3959,7 +3968,7 @@
       <c r="U68" s="26"/>
       <c r="V68" s="27"/>
     </row>
-    <row r="69" spans="3:22" ht="21" customHeight="1">
+    <row r="69" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
@@ -3981,7 +3990,7 @@
       <c r="U69" s="26"/>
       <c r="V69" s="27"/>
     </row>
-    <row r="70" spans="3:22" ht="21" customHeight="1">
+    <row r="70" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
@@ -4003,7 +4012,7 @@
       <c r="U70" s="26"/>
       <c r="V70" s="27"/>
     </row>
-    <row r="71" spans="3:22" ht="21" customHeight="1">
+    <row r="71" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
@@ -4025,7 +4034,7 @@
       <c r="U71" s="26"/>
       <c r="V71" s="27"/>
     </row>
-    <row r="72" spans="3:22" ht="21" customHeight="1">
+    <row r="72" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
@@ -4047,7 +4056,7 @@
       <c r="U72" s="26"/>
       <c r="V72" s="27"/>
     </row>
-    <row r="73" spans="3:22" ht="21" customHeight="1">
+    <row r="73" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
@@ -4069,7 +4078,7 @@
       <c r="U73" s="26"/>
       <c r="V73" s="27"/>
     </row>
-    <row r="74" spans="3:22" ht="21" customHeight="1">
+    <row r="74" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
@@ -4091,7 +4100,7 @@
       <c r="U74" s="26"/>
       <c r="V74" s="27"/>
     </row>
-    <row r="75" spans="3:22" ht="21" customHeight="1">
+    <row r="75" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
@@ -4113,7 +4122,7 @@
       <c r="U75" s="26"/>
       <c r="V75" s="27"/>
     </row>
-    <row r="76" spans="3:22" ht="21" customHeight="1">
+    <row r="76" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
@@ -4135,7 +4144,7 @@
       <c r="U76" s="26"/>
       <c r="V76" s="27"/>
     </row>
-    <row r="77" spans="3:22" ht="21" customHeight="1">
+    <row r="77" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
@@ -4157,7 +4166,7 @@
       <c r="U77" s="26"/>
       <c r="V77" s="27"/>
     </row>
-    <row r="78" spans="3:22" ht="21" customHeight="1">
+    <row r="78" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
       <c r="E78" s="25"/>
@@ -4179,7 +4188,7 @@
       <c r="U78" s="26"/>
       <c r="V78" s="27"/>
     </row>
-    <row r="79" spans="3:22" ht="21" customHeight="1">
+    <row r="79" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
@@ -4201,7 +4210,7 @@
       <c r="U79" s="26"/>
       <c r="V79" s="27"/>
     </row>
-    <row r="80" spans="3:22" ht="21" customHeight="1">
+    <row r="80" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
@@ -4223,7 +4232,7 @@
       <c r="U80" s="26"/>
       <c r="V80" s="27"/>
     </row>
-    <row r="81" spans="3:22" ht="21" customHeight="1">
+    <row r="81" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
@@ -4245,7 +4254,7 @@
       <c r="U81" s="26"/>
       <c r="V81" s="27"/>
     </row>
-    <row r="82" spans="3:22" ht="21" customHeight="1">
+    <row r="82" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
       <c r="E82" s="25"/>
@@ -4267,7 +4276,7 @@
       <c r="U82" s="26"/>
       <c r="V82" s="27"/>
     </row>
-    <row r="83" spans="3:22" ht="21" customHeight="1">
+    <row r="83" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
@@ -4289,7 +4298,7 @@
       <c r="U83" s="26"/>
       <c r="V83" s="27"/>
     </row>
-    <row r="84" spans="3:22" ht="21" customHeight="1">
+    <row r="84" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
       <c r="E84" s="25"/>
@@ -4311,7 +4320,7 @@
       <c r="U84" s="26"/>
       <c r="V84" s="27"/>
     </row>
-    <row r="85" spans="3:22" ht="21" customHeight="1">
+    <row r="85" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
@@ -4333,7 +4342,7 @@
       <c r="U85" s="26"/>
       <c r="V85" s="27"/>
     </row>
-    <row r="86" spans="3:22" ht="21" customHeight="1">
+    <row r="86" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
       <c r="E86" s="25"/>
@@ -4355,7 +4364,7 @@
       <c r="U86" s="26"/>
       <c r="V86" s="27"/>
     </row>
-    <row r="87" spans="3:22" ht="21" customHeight="1">
+    <row r="87" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
       <c r="E87" s="25"/>
@@ -4377,7 +4386,7 @@
       <c r="U87" s="26"/>
       <c r="V87" s="27"/>
     </row>
-    <row r="88" spans="3:22" ht="21" customHeight="1">
+    <row r="88" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
@@ -4399,7 +4408,7 @@
       <c r="U88" s="26"/>
       <c r="V88" s="27"/>
     </row>
-    <row r="89" spans="3:22" ht="21" customHeight="1">
+    <row r="89" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
@@ -4421,7 +4430,7 @@
       <c r="U89" s="26"/>
       <c r="V89" s="27"/>
     </row>
-    <row r="90" spans="3:22" ht="21" customHeight="1">
+    <row r="90" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
       <c r="E90" s="25"/>
@@ -4443,7 +4452,7 @@
       <c r="U90" s="26"/>
       <c r="V90" s="27"/>
     </row>
-    <row r="91" spans="3:22" ht="21" customHeight="1">
+    <row r="91" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
       <c r="E91" s="25"/>
@@ -4465,7 +4474,7 @@
       <c r="U91" s="26"/>
       <c r="V91" s="27"/>
     </row>
-    <row r="92" spans="3:22" ht="21" customHeight="1">
+    <row r="92" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
       <c r="E92" s="25"/>
@@ -4487,7 +4496,7 @@
       <c r="U92" s="26"/>
       <c r="V92" s="27"/>
     </row>
-    <row r="93" spans="3:22" ht="21" customHeight="1">
+    <row r="93" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
       <c r="E93" s="25"/>
@@ -4509,7 +4518,7 @@
       <c r="U93" s="26"/>
       <c r="V93" s="27"/>
     </row>
-    <row r="94" spans="3:22" ht="21" customHeight="1">
+    <row r="94" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="25"/>
       <c r="D94" s="25"/>
       <c r="E94" s="25"/>
@@ -4531,7 +4540,7 @@
       <c r="U94" s="26"/>
       <c r="V94" s="27"/>
     </row>
-    <row r="95" spans="3:22" ht="21" customHeight="1">
+    <row r="95" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
       <c r="E95" s="25"/>
@@ -4553,7 +4562,7 @@
       <c r="U95" s="26"/>
       <c r="V95" s="27"/>
     </row>
-    <row r="96" spans="3:22" ht="21" customHeight="1">
+    <row r="96" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
       <c r="E96" s="25"/>
@@ -4575,7 +4584,7 @@
       <c r="U96" s="26"/>
       <c r="V96" s="27"/>
     </row>
-    <row r="97" spans="3:22" ht="21" customHeight="1">
+    <row r="97" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="25"/>
       <c r="D97" s="25"/>
       <c r="E97" s="25"/>
@@ -4597,7 +4606,7 @@
       <c r="U97" s="26"/>
       <c r="V97" s="27"/>
     </row>
-    <row r="98" spans="3:22" ht="21" customHeight="1">
+    <row r="98" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
       <c r="E98" s="25"/>
@@ -4619,7 +4628,7 @@
       <c r="U98" s="26"/>
       <c r="V98" s="27"/>
     </row>
-    <row r="99" spans="3:22" ht="21" customHeight="1">
+    <row r="99" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="25"/>
       <c r="D99" s="25"/>
       <c r="E99" s="25"/>
@@ -4641,7 +4650,7 @@
       <c r="U99" s="26"/>
       <c r="V99" s="27"/>
     </row>
-    <row r="100" spans="3:22" ht="21" customHeight="1">
+    <row r="100" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="25"/>
       <c r="D100" s="25"/>
       <c r="E100" s="25"/>
@@ -4663,7 +4672,7 @@
       <c r="U100" s="26"/>
       <c r="V100" s="27"/>
     </row>
-    <row r="101" spans="3:22" ht="21" customHeight="1">
+    <row r="101" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
@@ -4685,7 +4694,7 @@
       <c r="U101" s="26"/>
       <c r="V101" s="27"/>
     </row>
-    <row r="102" spans="3:22" ht="21" customHeight="1">
+    <row r="102" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
       <c r="E102" s="25"/>
@@ -4707,7 +4716,7 @@
       <c r="U102" s="26"/>
       <c r="V102" s="27"/>
     </row>
-    <row r="103" spans="3:22" ht="21" customHeight="1">
+    <row r="103" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
       <c r="E103" s="25"/>
@@ -4729,7 +4738,7 @@
       <c r="U103" s="26"/>
       <c r="V103" s="27"/>
     </row>
-    <row r="104" spans="3:22" ht="21" customHeight="1">
+    <row r="104" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
       <c r="E104" s="25"/>
@@ -4751,7 +4760,7 @@
       <c r="U104" s="26"/>
       <c r="V104" s="27"/>
     </row>
-    <row r="105" spans="3:22" ht="21" customHeight="1" thickBot="1">
+    <row r="105" spans="3:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C105" s="30"/>
       <c r="D105" s="30"/>
       <c r="E105" s="30"/>
@@ -4773,39 +4782,18 @@
       <c r="U105" s="31"/>
       <c r="V105" s="32"/>
     </row>
-    <row r="106" spans="3:22" ht="30" customHeight="1">
+    <row r="106" spans="3:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K106" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="M18:M19"/>
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I8:J8"/>
@@ -4820,13 +4808,34 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A7:L7"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4839,7 +4848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" style="2" customWidth="1"/>
@@ -4848,9 +4857,9 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>14</v>
@@ -4862,124 +4871,124 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3"/>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="4:4">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="10"/>
     </row>
   </sheetData>
@@ -4990,52 +4999,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="108.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="48.140625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="B3" s="146" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75">
-      <c r="A5" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
     </row>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Fortrace.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Fortrace.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Supplier</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Type of business</t>
-  </si>
-  <si>
-    <t>Reporting Date</t>
   </si>
   <si>
     <t>Type of Business</t>
@@ -178,6 +175,9 @@
     <t>For each requested lot data has to be collected:
 - further lot information
 - all outgoing deliveries with associated lot en detail</t>
+  </si>
+  <si>
+    <t>Reporting Date: Day</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -901,17 +901,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,66 +951,6 @@
       </left>
       <right style="thin">
         <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1380,6 +1350,17 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1497,7 +1478,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1549,27 +1530,27 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1584,34 +1565,34 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1621,46 +1602,43 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1673,25 +1651,19 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1701,24 +1673,24 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="77" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1744,7 +1716,177 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1752,189 +1894,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="20% - Accent1 2" xfId="4"/>
@@ -2370,38 +2351,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="80" t="s">
+      <c r="E1" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="81" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
@@ -2413,11 +2394,11 @@
       <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="K2" s="78"/>
+      <c r="A2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
+      <c r="A3" s="74"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J8"/>
@@ -2437,7 +2418,7 @@
   <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2461,204 +2442,210 @@
     <col min="17" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="144" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="M2" s="52"/>
+      <c r="B2" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="37"/>
-      <c r="M3" s="52"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="143"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="37"/>
-      <c r="M4" s="52"/>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="45" t="e">
+      <c r="A5" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="44" t="e">
         <f>INDEX(Companies,MATCH(B5,StationIDs,0),1)</f>
         <v>#N/A</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
       <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="33"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:22" s="38" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="61" t="s">
+      <c r="A7" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="60"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="91"/>
+      <c r="K8" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="107"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="130"/>
+    </row>
+    <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="63"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="126" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="119" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="109"/>
-      <c r="K8" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="130"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="93"/>
-      <c r="V8" s="98"/>
-    </row>
-    <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="127"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="64" t="s">
+      <c r="J9" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="127"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="99"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="131"/>
     </row>
     <row r="10" spans="1:22" s="38" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
     </row>
     <row r="11" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
@@ -2675,23 +2662,23 @@
       <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="43" t="s">
-        <v>28</v>
+      <c r="A12" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="42" t="s">
+        <v>27</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="34"/>
@@ -2703,65 +2690,65 @@
       <c r="V12" s="35"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="108" t="s">
+      <c r="A13" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="106" t="s">
-        <v>40</v>
+      <c r="E13" s="124" t="s">
+        <v>39</v>
       </c>
       <c r="M13" s="20"/>
-      <c r="N13" s="91" t="s">
+      <c r="N13" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="91"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="95"/>
+      <c r="P13" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="135"/>
     </row>
     <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="134"/>
-      <c r="B14" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="107"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="125"/>
       <c r="M14" s="20"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="96"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="136"/>
     </row>
     <row r="15" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
       <c r="M15" s="20"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -2770,7 +2757,7 @@
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
       <c r="T15" s="21"/>
-      <c r="U15" s="55"/>
+      <c r="U15" s="54"/>
       <c r="V15" s="19"/>
     </row>
     <row r="16" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2787,108 +2774,108 @@
       <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="73"/>
-    </row>
-    <row r="18" spans="1:22" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="70"/>
+    </row>
+    <row r="18" spans="1:22" s="39" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="137" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="144" t="s">
+      <c r="C18" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="84"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="85"/>
+      <c r="K18" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="138"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="139"/>
-      <c r="K18" s="143" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="140" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="145" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="142"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="87"/>
-    </row>
-    <row r="19" spans="1:22" s="40" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="88"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="139"/>
+    </row>
+    <row r="19" spans="1:22" s="39" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="E19" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="F19" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="109"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="88"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="138"/>
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+      <c r="U19" s="138"/>
+      <c r="V19" s="140"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="25"/>
@@ -2900,9 +2887,9 @@
       <c r="I20" s="25"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
       <c r="O20" s="26"/>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
@@ -2922,9 +2909,9 @@
       <c r="I21" s="25"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="26"/>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
@@ -2944,9 +2931,9 @@
       <c r="I22" s="25"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
@@ -2966,9 +2953,9 @@
       <c r="I23" s="25"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
@@ -2988,9 +2975,9 @@
       <c r="I24" s="25"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
@@ -3010,9 +2997,9 @@
       <c r="I25" s="25"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
       <c r="O25" s="26"/>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
@@ -3032,9 +3019,9 @@
       <c r="I26" s="25"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
       <c r="Q26" s="26"/>
@@ -3054,9 +3041,9 @@
       <c r="I27" s="25"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
       <c r="O27" s="26"/>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
@@ -3076,9 +3063,9 @@
       <c r="I28" s="25"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
       <c r="O28" s="26"/>
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
@@ -3098,9 +3085,9 @@
       <c r="I29" s="25"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="26"/>
       <c r="P29" s="26"/>
       <c r="Q29" s="26"/>
@@ -3120,9 +3107,9 @@
       <c r="I30" s="25"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
       <c r="O30" s="26"/>
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
@@ -3142,9 +3129,9 @@
       <c r="I31" s="25"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
       <c r="O31" s="26"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
@@ -3164,9 +3151,9 @@
       <c r="I32" s="25"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
       <c r="O32" s="26"/>
       <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
@@ -3186,9 +3173,9 @@
       <c r="I33" s="25"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="26"/>
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
@@ -3208,9 +3195,9 @@
       <c r="I34" s="25"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
       <c r="O34" s="26"/>
       <c r="P34" s="26"/>
       <c r="Q34" s="26"/>
@@ -3230,9 +3217,9 @@
       <c r="I35" s="25"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
       <c r="O35" s="26"/>
       <c r="P35" s="26"/>
       <c r="Q35" s="26"/>
@@ -3252,9 +3239,9 @@
       <c r="I36" s="25"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
       <c r="O36" s="26"/>
       <c r="P36" s="26"/>
       <c r="Q36" s="26"/>
@@ -3274,9 +3261,9 @@
       <c r="I37" s="25"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
       <c r="O37" s="26"/>
       <c r="P37" s="26"/>
       <c r="Q37" s="26"/>
@@ -3296,9 +3283,9 @@
       <c r="I38" s="25"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
       <c r="O38" s="26"/>
       <c r="P38" s="26"/>
       <c r="Q38" s="26"/>
@@ -3318,9 +3305,9 @@
       <c r="I39" s="25"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="26"/>
@@ -3340,9 +3327,9 @@
       <c r="I40" s="25"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
       <c r="O40" s="26"/>
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
@@ -3362,9 +3349,9 @@
       <c r="I41" s="25"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
       <c r="O41" s="26"/>
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
@@ -3384,9 +3371,9 @@
       <c r="I42" s="25"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
       <c r="O42" s="26"/>
       <c r="P42" s="26"/>
       <c r="Q42" s="26"/>
@@ -3406,9 +3393,9 @@
       <c r="I43" s="25"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
       <c r="O43" s="26"/>
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
@@ -3428,9 +3415,9 @@
       <c r="I44" s="25"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
       <c r="O44" s="26"/>
       <c r="P44" s="26"/>
       <c r="Q44" s="26"/>
@@ -3450,9 +3437,9 @@
       <c r="I45" s="25"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
       <c r="O45" s="26"/>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
@@ -3472,9 +3459,9 @@
       <c r="I46" s="25"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
       <c r="O46" s="26"/>
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
@@ -3494,9 +3481,9 @@
       <c r="I47" s="25"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
       <c r="O47" s="26"/>
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
@@ -3516,9 +3503,9 @@
       <c r="I48" s="25"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
       <c r="O48" s="26"/>
       <c r="P48" s="26"/>
       <c r="Q48" s="26"/>
@@ -3538,9 +3525,9 @@
       <c r="I49" s="25"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
       <c r="O49" s="26"/>
       <c r="P49" s="26"/>
       <c r="Q49" s="26"/>
@@ -3560,9 +3547,9 @@
       <c r="I50" s="25"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
       <c r="O50" s="26"/>
       <c r="P50" s="26"/>
       <c r="Q50" s="26"/>
@@ -3582,9 +3569,9 @@
       <c r="I51" s="25"/>
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
       <c r="O51" s="26"/>
       <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
@@ -3604,9 +3591,9 @@
       <c r="I52" s="25"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
       <c r="O52" s="26"/>
       <c r="P52" s="26"/>
       <c r="Q52" s="26"/>
@@ -3626,9 +3613,9 @@
       <c r="I53" s="25"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
       <c r="O53" s="26"/>
       <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
@@ -3648,9 +3635,9 @@
       <c r="I54" s="25"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
       <c r="O54" s="26"/>
       <c r="P54" s="26"/>
       <c r="Q54" s="26"/>
@@ -3670,9 +3657,9 @@
       <c r="I55" s="25"/>
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
       <c r="O55" s="26"/>
       <c r="P55" s="26"/>
       <c r="Q55" s="26"/>
@@ -3692,9 +3679,9 @@
       <c r="I56" s="25"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
       <c r="O56" s="26"/>
       <c r="P56" s="26"/>
       <c r="Q56" s="26"/>
@@ -3714,9 +3701,9 @@
       <c r="I57" s="25"/>
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
       <c r="O57" s="26"/>
       <c r="P57" s="26"/>
       <c r="Q57" s="26"/>
@@ -3736,9 +3723,9 @@
       <c r="I58" s="25"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
       <c r="O58" s="26"/>
       <c r="P58" s="26"/>
       <c r="Q58" s="26"/>
@@ -3758,9 +3745,9 @@
       <c r="I59" s="25"/>
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
       <c r="O59" s="26"/>
       <c r="P59" s="26"/>
       <c r="Q59" s="26"/>
@@ -3780,9 +3767,9 @@
       <c r="I60" s="25"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
       <c r="O60" s="26"/>
       <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
@@ -3802,9 +3789,9 @@
       <c r="I61" s="25"/>
       <c r="J61" s="24"/>
       <c r="K61" s="24"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
       <c r="O61" s="26"/>
       <c r="P61" s="26"/>
       <c r="Q61" s="26"/>
@@ -3824,9 +3811,9 @@
       <c r="I62" s="25"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
       <c r="O62" s="26"/>
       <c r="P62" s="26"/>
       <c r="Q62" s="26"/>
@@ -3846,9 +3833,9 @@
       <c r="I63" s="25"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
       <c r="O63" s="26"/>
       <c r="P63" s="26"/>
       <c r="Q63" s="26"/>
@@ -3868,9 +3855,9 @@
       <c r="I64" s="25"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
       <c r="O64" s="26"/>
       <c r="P64" s="26"/>
       <c r="Q64" s="26"/>
@@ -3890,9 +3877,9 @@
       <c r="I65" s="25"/>
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
       <c r="O65" s="26"/>
       <c r="P65" s="26"/>
       <c r="Q65" s="26"/>
@@ -3912,9 +3899,9 @@
       <c r="I66" s="25"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
       <c r="Q66" s="26"/>
@@ -3934,9 +3921,9 @@
       <c r="I67" s="25"/>
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
       <c r="O67" s="26"/>
       <c r="P67" s="26"/>
       <c r="Q67" s="26"/>
@@ -3956,9 +3943,9 @@
       <c r="I68" s="25"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
       <c r="O68" s="26"/>
       <c r="P68" s="26"/>
       <c r="Q68" s="26"/>
@@ -3978,9 +3965,9 @@
       <c r="I69" s="25"/>
       <c r="J69" s="24"/>
       <c r="K69" s="24"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
       <c r="O69" s="26"/>
       <c r="P69" s="26"/>
       <c r="Q69" s="26"/>
@@ -4000,9 +3987,9 @@
       <c r="I70" s="25"/>
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
       <c r="O70" s="26"/>
       <c r="P70" s="26"/>
       <c r="Q70" s="26"/>
@@ -4022,9 +4009,9 @@
       <c r="I71" s="25"/>
       <c r="J71" s="24"/>
       <c r="K71" s="24"/>
-      <c r="L71" s="67"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
       <c r="O71" s="26"/>
       <c r="P71" s="26"/>
       <c r="Q71" s="26"/>
@@ -4044,9 +4031,9 @@
       <c r="I72" s="25"/>
       <c r="J72" s="24"/>
       <c r="K72" s="24"/>
-      <c r="L72" s="67"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
       <c r="O72" s="26"/>
       <c r="P72" s="26"/>
       <c r="Q72" s="26"/>
@@ -4066,9 +4053,9 @@
       <c r="I73" s="25"/>
       <c r="J73" s="24"/>
       <c r="K73" s="24"/>
-      <c r="L73" s="67"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
       <c r="O73" s="26"/>
       <c r="P73" s="26"/>
       <c r="Q73" s="26"/>
@@ -4088,9 +4075,9 @@
       <c r="I74" s="25"/>
       <c r="J74" s="24"/>
       <c r="K74" s="24"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="41"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
       <c r="O74" s="26"/>
       <c r="P74" s="26"/>
       <c r="Q74" s="26"/>
@@ -4110,9 +4097,9 @@
       <c r="I75" s="25"/>
       <c r="J75" s="24"/>
       <c r="K75" s="24"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
       <c r="O75" s="26"/>
       <c r="P75" s="26"/>
       <c r="Q75" s="26"/>
@@ -4132,9 +4119,9 @@
       <c r="I76" s="25"/>
       <c r="J76" s="24"/>
       <c r="K76" s="24"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
       <c r="O76" s="26"/>
       <c r="P76" s="26"/>
       <c r="Q76" s="26"/>
@@ -4154,9 +4141,9 @@
       <c r="I77" s="25"/>
       <c r="J77" s="24"/>
       <c r="K77" s="24"/>
-      <c r="L77" s="67"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
+      <c r="L77" s="64"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
       <c r="O77" s="26"/>
       <c r="P77" s="26"/>
       <c r="Q77" s="26"/>
@@ -4176,9 +4163,9 @@
       <c r="I78" s="25"/>
       <c r="J78" s="24"/>
       <c r="K78" s="24"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
       <c r="O78" s="26"/>
       <c r="P78" s="26"/>
       <c r="Q78" s="26"/>
@@ -4198,9 +4185,9 @@
       <c r="I79" s="25"/>
       <c r="J79" s="24"/>
       <c r="K79" s="24"/>
-      <c r="L79" s="67"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="41"/>
+      <c r="L79" s="64"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
       <c r="O79" s="26"/>
       <c r="P79" s="26"/>
       <c r="Q79" s="26"/>
@@ -4220,9 +4207,9 @@
       <c r="I80" s="25"/>
       <c r="J80" s="24"/>
       <c r="K80" s="24"/>
-      <c r="L80" s="67"/>
-      <c r="M80" s="41"/>
-      <c r="N80" s="41"/>
+      <c r="L80" s="64"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
       <c r="O80" s="26"/>
       <c r="P80" s="26"/>
       <c r="Q80" s="26"/>
@@ -4242,9 +4229,9 @@
       <c r="I81" s="25"/>
       <c r="J81" s="24"/>
       <c r="K81" s="24"/>
-      <c r="L81" s="67"/>
-      <c r="M81" s="41"/>
-      <c r="N81" s="41"/>
+      <c r="L81" s="64"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
       <c r="O81" s="26"/>
       <c r="P81" s="26"/>
       <c r="Q81" s="26"/>
@@ -4264,9 +4251,9 @@
       <c r="I82" s="25"/>
       <c r="J82" s="24"/>
       <c r="K82" s="24"/>
-      <c r="L82" s="67"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="41"/>
+      <c r="L82" s="64"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
       <c r="O82" s="26"/>
       <c r="P82" s="26"/>
       <c r="Q82" s="26"/>
@@ -4286,9 +4273,9 @@
       <c r="I83" s="25"/>
       <c r="J83" s="24"/>
       <c r="K83" s="24"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="41"/>
+      <c r="L83" s="64"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
       <c r="O83" s="26"/>
       <c r="P83" s="26"/>
       <c r="Q83" s="26"/>
@@ -4308,9 +4295,9 @@
       <c r="I84" s="25"/>
       <c r="J84" s="24"/>
       <c r="K84" s="24"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="41"/>
+      <c r="L84" s="64"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
       <c r="O84" s="26"/>
       <c r="P84" s="26"/>
       <c r="Q84" s="26"/>
@@ -4330,9 +4317,9 @@
       <c r="I85" s="25"/>
       <c r="J85" s="24"/>
       <c r="K85" s="24"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="41"/>
+      <c r="L85" s="64"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="40"/>
       <c r="O85" s="26"/>
       <c r="P85" s="26"/>
       <c r="Q85" s="26"/>
@@ -4352,9 +4339,9 @@
       <c r="I86" s="25"/>
       <c r="J86" s="24"/>
       <c r="K86" s="24"/>
-      <c r="L86" s="67"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
+      <c r="L86" s="64"/>
+      <c r="M86" s="40"/>
+      <c r="N86" s="40"/>
       <c r="O86" s="26"/>
       <c r="P86" s="26"/>
       <c r="Q86" s="26"/>
@@ -4374,9 +4361,9 @@
       <c r="I87" s="25"/>
       <c r="J87" s="24"/>
       <c r="K87" s="24"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
+      <c r="L87" s="64"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
       <c r="O87" s="26"/>
       <c r="P87" s="26"/>
       <c r="Q87" s="26"/>
@@ -4396,9 +4383,9 @@
       <c r="I88" s="25"/>
       <c r="J88" s="24"/>
       <c r="K88" s="24"/>
-      <c r="L88" s="67"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
+      <c r="L88" s="64"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
       <c r="O88" s="26"/>
       <c r="P88" s="26"/>
       <c r="Q88" s="26"/>
@@ -4418,9 +4405,9 @@
       <c r="I89" s="25"/>
       <c r="J89" s="24"/>
       <c r="K89" s="24"/>
-      <c r="L89" s="67"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="41"/>
+      <c r="L89" s="64"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
       <c r="O89" s="26"/>
       <c r="P89" s="26"/>
       <c r="Q89" s="26"/>
@@ -4440,9 +4427,9 @@
       <c r="I90" s="25"/>
       <c r="J90" s="24"/>
       <c r="K90" s="24"/>
-      <c r="L90" s="67"/>
-      <c r="M90" s="41"/>
-      <c r="N90" s="41"/>
+      <c r="L90" s="64"/>
+      <c r="M90" s="40"/>
+      <c r="N90" s="40"/>
       <c r="O90" s="26"/>
       <c r="P90" s="26"/>
       <c r="Q90" s="26"/>
@@ -4462,9 +4449,9 @@
       <c r="I91" s="25"/>
       <c r="J91" s="24"/>
       <c r="K91" s="24"/>
-      <c r="L91" s="67"/>
-      <c r="M91" s="41"/>
-      <c r="N91" s="41"/>
+      <c r="L91" s="64"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="40"/>
       <c r="O91" s="26"/>
       <c r="P91" s="26"/>
       <c r="Q91" s="26"/>
@@ -4484,9 +4471,9 @@
       <c r="I92" s="25"/>
       <c r="J92" s="24"/>
       <c r="K92" s="24"/>
-      <c r="L92" s="67"/>
-      <c r="M92" s="41"/>
-      <c r="N92" s="41"/>
+      <c r="L92" s="64"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
       <c r="O92" s="26"/>
       <c r="P92" s="26"/>
       <c r="Q92" s="26"/>
@@ -4506,9 +4493,9 @@
       <c r="I93" s="25"/>
       <c r="J93" s="24"/>
       <c r="K93" s="24"/>
-      <c r="L93" s="67"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
+      <c r="L93" s="64"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
       <c r="O93" s="26"/>
       <c r="P93" s="26"/>
       <c r="Q93" s="26"/>
@@ -4528,9 +4515,9 @@
       <c r="I94" s="25"/>
       <c r="J94" s="24"/>
       <c r="K94" s="24"/>
-      <c r="L94" s="67"/>
-      <c r="M94" s="41"/>
-      <c r="N94" s="41"/>
+      <c r="L94" s="64"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
       <c r="O94" s="26"/>
       <c r="P94" s="26"/>
       <c r="Q94" s="26"/>
@@ -4550,9 +4537,9 @@
       <c r="I95" s="25"/>
       <c r="J95" s="24"/>
       <c r="K95" s="24"/>
-      <c r="L95" s="67"/>
-      <c r="M95" s="41"/>
-      <c r="N95" s="41"/>
+      <c r="L95" s="64"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
       <c r="O95" s="26"/>
       <c r="P95" s="26"/>
       <c r="Q95" s="26"/>
@@ -4572,9 +4559,9 @@
       <c r="I96" s="25"/>
       <c r="J96" s="24"/>
       <c r="K96" s="24"/>
-      <c r="L96" s="67"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
       <c r="O96" s="26"/>
       <c r="P96" s="26"/>
       <c r="Q96" s="26"/>
@@ -4594,9 +4581,9 @@
       <c r="I97" s="25"/>
       <c r="J97" s="24"/>
       <c r="K97" s="24"/>
-      <c r="L97" s="67"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="41"/>
+      <c r="L97" s="64"/>
+      <c r="M97" s="40"/>
+      <c r="N97" s="40"/>
       <c r="O97" s="26"/>
       <c r="P97" s="26"/>
       <c r="Q97" s="26"/>
@@ -4616,9 +4603,9 @@
       <c r="I98" s="25"/>
       <c r="J98" s="24"/>
       <c r="K98" s="24"/>
-      <c r="L98" s="67"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
+      <c r="L98" s="64"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="40"/>
       <c r="O98" s="26"/>
       <c r="P98" s="26"/>
       <c r="Q98" s="26"/>
@@ -4638,9 +4625,9 @@
       <c r="I99" s="25"/>
       <c r="J99" s="24"/>
       <c r="K99" s="24"/>
-      <c r="L99" s="67"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
+      <c r="L99" s="64"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="40"/>
       <c r="O99" s="26"/>
       <c r="P99" s="26"/>
       <c r="Q99" s="26"/>
@@ -4660,9 +4647,9 @@
       <c r="I100" s="25"/>
       <c r="J100" s="24"/>
       <c r="K100" s="24"/>
-      <c r="L100" s="67"/>
-      <c r="M100" s="41"/>
-      <c r="N100" s="41"/>
+      <c r="L100" s="64"/>
+      <c r="M100" s="40"/>
+      <c r="N100" s="40"/>
       <c r="O100" s="26"/>
       <c r="P100" s="26"/>
       <c r="Q100" s="26"/>
@@ -4682,9 +4669,9 @@
       <c r="I101" s="25"/>
       <c r="J101" s="24"/>
       <c r="K101" s="24"/>
-      <c r="L101" s="67"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="41"/>
+      <c r="L101" s="64"/>
+      <c r="M101" s="40"/>
+      <c r="N101" s="40"/>
       <c r="O101" s="26"/>
       <c r="P101" s="26"/>
       <c r="Q101" s="26"/>
@@ -4704,9 +4691,9 @@
       <c r="I102" s="25"/>
       <c r="J102" s="24"/>
       <c r="K102" s="24"/>
-      <c r="L102" s="67"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
+      <c r="L102" s="64"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="40"/>
       <c r="O102" s="26"/>
       <c r="P102" s="26"/>
       <c r="Q102" s="26"/>
@@ -4726,9 +4713,9 @@
       <c r="I103" s="25"/>
       <c r="J103" s="24"/>
       <c r="K103" s="24"/>
-      <c r="L103" s="67"/>
-      <c r="M103" s="41"/>
-      <c r="N103" s="41"/>
+      <c r="L103" s="64"/>
+      <c r="M103" s="40"/>
+      <c r="N103" s="40"/>
       <c r="O103" s="26"/>
       <c r="P103" s="26"/>
       <c r="Q103" s="26"/>
@@ -4748,9 +4735,9 @@
       <c r="I104" s="25"/>
       <c r="J104" s="24"/>
       <c r="K104" s="24"/>
-      <c r="L104" s="67"/>
-      <c r="M104" s="41"/>
-      <c r="N104" s="41"/>
+      <c r="L104" s="64"/>
+      <c r="M104" s="40"/>
+      <c r="N104" s="40"/>
       <c r="O104" s="26"/>
       <c r="P104" s="26"/>
       <c r="Q104" s="26"/>
@@ -4770,9 +4757,9 @@
       <c r="I105" s="30"/>
       <c r="J105" s="29"/>
       <c r="K105" s="29"/>
-      <c r="L105" s="76"/>
-      <c r="M105" s="44"/>
-      <c r="N105" s="44"/>
+      <c r="L105" s="73"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
       <c r="O105" s="31"/>
       <c r="P105" s="31"/>
       <c r="Q105" s="31"/>
@@ -4787,15 +4774,35 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C8:E8"/>
@@ -4808,34 +4815,14 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="M18:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4859,16 +4846,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5012,20 +4999,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="82" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" s="146" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5033,12 +5020,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
